--- a/TestResults/HolidayGet.xlsx
+++ b/TestResults/HolidayGet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="49">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -71,81 +71,171 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Total number of records matching between DB &amp; Response: 8, below are the test steps for this test case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_holidayId: 8906064967578074397
-DB_holidayId: 8906064967578074397
-Response_holidayName: diwali
-DB_holidayName: diwali
-Response_holidayDateParamText: Test_01
-DB_holidayDateParamText: Test_01
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_holidayId: 8246032237413791221
-DB_holidayId: 8246032237413791221
-Response_holidayName: Labour Day(of New Zealand)
-DB_holidayName: Labour Day(of New Zealand)
-Response_holidayDateParamText: 
-DB_holidayDateParamText: 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_holidayId: 647170576667945397
-DB_holidayId: 647170576667945397
-Response_holidayName: Swiss National Day
-DB_holidayName: Swiss National Day
-Response_holidayDateParamText: 
-DB_holidayDateParamText: 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_holidayId: 3847867473869672469
-DB_holidayId: 3847867473869672469
-Response_holidayName: Independence Day (of Brazil)
-DB_holidayName: Independence Day (of Brazil)
-Response_holidayDateParamText: 
-DB_holidayDateParamText: 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_holidayId: 3307245509252474471
-DB_holidayId: 3307245509252474471
-Response_holidayName: Christmas Day
-DB_holidayName: Christmas Day
-Response_holidayDateParamText: December 25th of Every Year
-DB_holidayDateParamText: December 25th of Every Year
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_holidayId: 6129166261288443381
-DB_holidayId: 6129166261288443381
-Response_holidayName: New Year's Day
-DB_holidayName: New Year's Day
-Response_holidayDateParamText: Janauary 1st of Every Year
-DB_holidayDateParamText: Janauary 1st of Every Year
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_holidayId: 3150742202220945218
-DB_holidayId: 3150742202220945218
-Response_holidayName: Labour Day (of Brazil)
-DB_holidayName: Labour Day (of Brazil)
-Response_holidayDateParamText: 
-DB_holidayDateParamText: 
+    <t>Total number of records matching between DB &amp; Response: 18, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 7981215801976543246
+DB_holidayId: 7981215801976543246
+Response_holidayName: TestHDNM
+DB_holidayName: TestHDNM
+Response_holidayDateParameterText: 
+DB_holidayDateParameterText: 
 </t>
   </si>
   <si>
     <t xml:space="preserve">Response_holidayId: 9013583257821525879
 DB_holidayId: 9013583257821525879
+Response_holidayName: testinsert
+DB_holidayName: testinsert
+Response_holidayDateParameterText: testtext
+DB_holidayDateParameterText: testtext
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 9192255403503236682
+DB_holidayId: 9192255403503236682
 Response_holidayName: TestHDName
 DB_holidayName: TestHDName
-Response_holidayDateParamText: TestHDDateParam
-DB_holidayDateParamText: TestHDDateParam
+Response_holidayDateParameterText: 
+DB_holidayDateParameterText: 
 </t>
   </si>
   <si>
+    <t xml:space="preserve">Response_holidayId: 7477744287828610838
+DB_holidayId: 7477744287828610838
+Response_holidayName: TestHDB
+DB_holidayName: TestHDB
+Response_holidayDateParameterText: 
+DB_holidayDateParameterText: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 7557369125671640797
+DB_holidayId: 7557369125671640797
+Response_holidayName: TestHDC
+DB_holidayName: TestHDC
+Response_holidayDateParameterText: 
+DB_holidayDateParameterText: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 5755800033595186971
+DB_holidayId: 5755800033595186971
+Response_holidayName: HolidayNameLengthHolidayNameLengthHolidayNameLengthHolidayNameLeB
+DB_holidayName: HolidayNameLengthHolidayNameLengthHolidayNameLengthHolidayNameLeB
+Response_holidayDateParameterText: HolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayPac
+DB_holidayDateParameterText: HolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayParameterTextLegnthHolidayPac
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 6462684904184860933
+DB_holidayId: 6462684904184860933
+Response_holidayName: TestHDRa
+DB_holidayName: TestHDRa
+Response_holidayDateParameterText: HolidayHDDateRa
+DB_holidayDateParameterText: HolidayHDDateRa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 5787867528625739237
+DB_holidayId: 5787867528625739237
+Response_holidayName: TestHDWa
+DB_holidayName: TestHDWa
+Response_holidayDateParameterText: 
+DB_holidayDateParameterText: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 463956232237047834
+DB_holidayId: 463956232237047834
+Response_holidayName: TestHolidayName HolidayName HolidayName HolidayName HolidayNaNew5
+DB_holidayName: TestHolidayName HolidayName HolidayName HolidayName HolidayNaNew5
+Response_holidayDateParameterText: TestHolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayNNew6
+DB_holidayDateParameterText: TestHolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayNNew6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 4823232872522981034
+DB_holidayId: 4823232872522981034
+Response_holidayName: TestHDR
+DB_holidayName: TestHDR
+Response_holidayDateParameterText: HolidayHDDateR
+DB_holidayDateParameterText: HolidayHDDateR
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 3051963035026018400
+DB_holidayId: 3051963035026018400
+Response_holidayName: TestHolidayName HolidayName HolidayName HolidayName HolidayNaNewB
+DB_holidayName: TestHolidayName HolidayName HolidayName HolidayName HolidayNaNewB
+Response_holidayDateParameterText: TestHolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayNNewB
+DB_holidayDateParameterText: TestHolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayNNewB
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 5416862192143440178
+DB_holidayId: 5416862192143440178
+Response_holidayName: TestHDA
+DB_holidayName: TestHDA
+Response_holidayDateParameterText: HolidayHDDateA
+DB_holidayDateParameterText: HolidayHDDateA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 4183769792716764037
+DB_holidayId: 4183769792716764037
+Response_holidayName: TestHolidayName HolidayName HolidayName HolidayName HolidayNaNewA
+DB_holidayName: TestHolidayName HolidayName HolidayName HolidayName HolidayNaNewA
+Response_holidayDateParameterText: TestHolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayNNewA
+DB_holidayDateParameterText: TestHolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayName HolidayNNewA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 5295319925381989606
+DB_holidayId: 5295319925381989606
+Response_holidayName: TestHDQ
+DB_holidayName: TestHDQ
+Response_holidayDateParameterText: HolidayHDDateQ
+DB_holidayDateParameterText: HolidayHDDateQ
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 1044271869231688424
+DB_holidayId: 1044271869231688424
+Response_holidayName: TestforCntry
+DB_holidayName: TestforCntry
+Response_holidayDateParameterText: Testfrorcntrypost
+DB_holidayDateParameterText: Testfrorcntrypost
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 2886459217413346580
+DB_holidayId: 2886459217413346580
+Response_holidayName: TestHDPut
+DB_holidayName: TestHDPut
+Response_holidayDateParameterText: 
+DB_holidayDateParameterText: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 3003034021358138805
+DB_holidayId: 3003034021358138805
+Response_holidayName: TestHDW
+DB_holidayName: TestHDW
+Response_holidayDateParameterText: 
+DB_holidayDateParameterText: 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Response_holidayId: 8714002184433461593
+DB_holidayId: 8714002184433461593
+Response_holidayName: TestHDE
+DB_holidayName: TestHDE
+Response_holidayDateParameterText: 
+DB_holidayDateParameterText: 
+</t>
+  </si>
+  <si>
     <t>TC_02</t>
   </si>
   <si>
@@ -153,6 +243,53 @@
   </si>
   <si>
     <t>Total number of records matching between DB &amp; Response: 1, below are the test steps for this test case</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>Verify that the Error message is displayed when the invalid HolidayId (not available in Holiday table) is passed in URI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_holidayName: xcfg
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"version":"1.0.0",
+		"message":
+		{
+			"data":null,
+			"internalMessage":"There are no records for the specified criteria",
+			"status":"Success"
+		}
+	},
+	"data":
+	[
+	]
+}</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Verify that the Exception is received when the URI is not correct</t>
+  </si>
+  <si>
+    <t>404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"timestamp":"2020-04-21T13:58:06.504+0000",
+	"status":404,
+	"error":"Not Found",
+	"message":"No message available",
+	"path":"/v2/holiday"
+}</t>
   </si>
 </sst>
 </file>
@@ -160,7 +297,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="123">
+  <fonts count="255">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -173,6 +310,666 @@
       <sz val="11.0"/>
       <color indexed="9"/>
       <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -846,7 +1643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -1212,6 +2009,402 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="122" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1600,10 +2793,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="101">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s" s="102">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s" s="103">
         <v>13</v>
@@ -1618,19 +2811,19 @@
         <v>15</v>
       </c>
       <c r="G11" t="s" s="107">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s" s="108">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s" s="109">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s" s="110">
         <v>18</v>
       </c>
       <c r="K11" t="s" s="111">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L11"/>
     </row>
@@ -1639,7 +2832,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s" s="113">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s" s="114">
         <v>13</v>
@@ -1660,7 +2853,7 @@
         <v>15</v>
       </c>
       <c r="I12" t="s" s="120">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s" s="121">
         <v>18</v>
@@ -1669,6 +2862,438 @@
         <v>15</v>
       </c>
       <c r="L12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="123">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s" s="124">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s" s="125">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="126">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="127">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s" s="128">
+        <v>15</v>
+      </c>
+      <c r="G13" t="s" s="129">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s" s="130">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s" s="131">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s" s="132">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s" s="133">
+        <v>15</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="134">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s" s="135">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s" s="136">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="137">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="138">
+        <v>15</v>
+      </c>
+      <c r="F14" t="s" s="139">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s" s="140">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s" s="141">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s" s="142">
+        <v>31</v>
+      </c>
+      <c r="J14" t="s" s="143">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s" s="144">
+        <v>15</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="145">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s" s="146">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s" s="147">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="148">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="149">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s" s="150">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s" s="151">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s" s="152">
+        <v>15</v>
+      </c>
+      <c r="I15" t="s" s="153">
+        <v>32</v>
+      </c>
+      <c r="J15" t="s" s="154">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s" s="155">
+        <v>15</v>
+      </c>
+      <c r="L15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="156">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="157">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s" s="158">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="159">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="160">
+        <v>15</v>
+      </c>
+      <c r="F16" t="s" s="161">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s" s="162">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s" s="163">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s" s="164">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s" s="165">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s" s="166">
+        <v>15</v>
+      </c>
+      <c r="L16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="167">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s" s="168">
+        <v>12</v>
+      </c>
+      <c r="C17" t="s" s="169">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s" s="170">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="171">
+        <v>15</v>
+      </c>
+      <c r="F17" t="s" s="172">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s" s="173">
+        <v>15</v>
+      </c>
+      <c r="H17" t="s" s="174">
+        <v>15</v>
+      </c>
+      <c r="I17" t="s" s="175">
+        <v>34</v>
+      </c>
+      <c r="J17" t="s" s="176">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s" s="177">
+        <v>15</v>
+      </c>
+      <c r="L17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="178">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s" s="179">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s" s="180">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s" s="181">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="182">
+        <v>15</v>
+      </c>
+      <c r="F18" t="s" s="183">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s" s="184">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s" s="185">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s" s="186">
+        <v>35</v>
+      </c>
+      <c r="J18" t="s" s="187">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s" s="188">
+        <v>15</v>
+      </c>
+      <c r="L18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="189">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s" s="190">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s" s="191">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="192">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="193">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s" s="194">
+        <v>15</v>
+      </c>
+      <c r="G19" t="s" s="195">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s" s="196">
+        <v>15</v>
+      </c>
+      <c r="I19" t="s" s="197">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s" s="198">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s" s="199">
+        <v>15</v>
+      </c>
+      <c r="L19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="200">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s" s="201">
+        <v>12</v>
+      </c>
+      <c r="C20" t="s" s="202">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="204">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s" s="205">
+        <v>15</v>
+      </c>
+      <c r="G20" t="s" s="206">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s" s="207">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s" s="208">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s" s="209">
+        <v>18</v>
+      </c>
+      <c r="K20" t="s" s="210">
+        <v>15</v>
+      </c>
+      <c r="L20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="211">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s" s="212">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s" s="213">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="214">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="215">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s" s="216">
+        <v>15</v>
+      </c>
+      <c r="G21" t="s" s="217">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="218">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s" s="219">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s" s="220">
+        <v>18</v>
+      </c>
+      <c r="K21" t="s" s="221">
+        <v>40</v>
+      </c>
+      <c r="L21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="222">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s" s="224">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="225">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="226">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s" s="227">
+        <v>15</v>
+      </c>
+      <c r="G22" t="s" s="228">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s" s="229">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s" s="230">
+        <v>34</v>
+      </c>
+      <c r="J22" t="s" s="231">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s" s="232">
+        <v>15</v>
+      </c>
+      <c r="L22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="233">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s" s="234">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s" s="235">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="236">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="237">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s" s="238">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="239">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="240">
+        <v>17</v>
+      </c>
+      <c r="I23" t="s" s="241">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s" s="242">
+        <v>18</v>
+      </c>
+      <c r="K23" t="s" s="243">
+        <v>15</v>
+      </c>
+      <c r="L23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="244">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s" s="245">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s" s="246">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="247">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="248">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s" s="249">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="250">
+        <v>47</v>
+      </c>
+      <c r="H24" t="s" s="251">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s" s="252">
+        <v>48</v>
+      </c>
+      <c r="J24" t="s" s="253">
+        <v>18</v>
+      </c>
+      <c r="K24" t="s" s="254">
+        <v>15</v>
+      </c>
+      <c r="L24"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
